--- a/sigmaaie/modules/university-hr/doc/university-hr-uk.xlsx
+++ b/sigmaaie/modules/university-hr/doc/university-hr-uk.xlsx
@@ -12,87 +12,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ConceptScheme</t>
+  </si>
   <si>
     <t>vivo</t>
   </si>
   <si>
+    <t>Position</t>
+  </si>
+  <si>
     <t>FacultyAdministrativePosition</t>
   </si>
   <si>
     <t>rohuk</t>
   </si>
   <si>
+    <t>GB_UNIVERSITY_HR_GBCHAN</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBDEAN</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBDEPDIR</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBDEPVICHAN</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBHEADDEP</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBPROCHAN</t>
+  </si>
+  <si>
     <t>GB_UNIVERSITY_HR_GBPROVICCHAN</t>
   </si>
   <si>
-    <t>GB_UNIVERSITY_HR_GBHEADDEP</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBDEPDIR</t>
-  </si>
-  <si>
     <t>GB_UNIVERSITY_HR_GBVICCHAN</t>
   </si>
   <si>
-    <t>GB_UNIVERSITY_HR_GBCHAN</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBDEPVICHAN</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBPROCHAN</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBDEAN</t>
-  </si>
-  <si>
     <t>FacultyPosition</t>
   </si>
   <si>
+    <t>GB_UNIVERSITY_HR_GBEPROF</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBEREAD</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBRTASSLEC</t>
+  </si>
+  <si>
     <t>GB_UNIVERSITY_HR_GBRTCLLEC</t>
   </si>
   <si>
     <t>GB_UNIVERSITY_HR_GBRTLEC</t>
   </si>
   <si>
-    <t>GB_UNIVERSITY_HR_GBEREAD</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBEPROF</t>
+    <t>GB_UNIVERSITY_HR_GBRTPROF</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBRTREAD</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBRTSENLEC</t>
+  </si>
+  <si>
+    <t>GB_UNIVERSITY_HR_GBTPROF</t>
+  </si>
+  <si>
+    <t>roh</t>
+  </si>
+  <si>
+    <t>ResearcherPosition</t>
   </si>
   <si>
     <t>GB_UNIVERSITY_HR_GBRPROF</t>
   </si>
   <si>
-    <t>GB_UNIVERSITY_HR_GBRTASSLEC</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBRTPROF</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBTPROF</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBRTREAD</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBRTSENLEC</t>
-  </si>
-  <si>
-    <t>AcademicPosition</t>
+    <t>GB_UNIVERSITY_HR_GBRREAASS</t>
   </si>
   <si>
     <t>GB_UNIVERSITY_HR_GBRREAFEL</t>
   </si>
   <si>
     <t>GB_UNIVERSITY_HR_GBRSENREAFEL</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>GB_UNIVERSITY_HR_GBRREAASS</t>
   </si>
 </sst>
 </file>
@@ -568,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -590,311 +602,313 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2">
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4">
-      <c r="B4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5">
-      <c r="B5" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
     <row r="6">
-      <c r="B6" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
     </row>
     <row r="7">
-      <c r="B7" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
     </row>
     <row r="8">
-      <c r="B8" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C8" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
     </row>
     <row r="9">
-      <c r="B9" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11">
-      <c r="B11" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
     <row r="12">
-      <c r="B12" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13">
-      <c r="B13" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14">
-      <c r="B14" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
     </row>
     <row r="15">
-      <c r="B15" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
     </row>
     <row r="16">
-      <c r="B16" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
     </row>
     <row r="17">
-      <c r="B17" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
     <row r="18">
-      <c r="B18" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
     <row r="19">
-      <c r="B19" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
     </row>
     <row r="20">
-      <c r="B20" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C20" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22">
-      <c r="B22" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
     </row>
     <row r="23">
-      <c r="B23" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25">
-      <c r="B25" s="37" t="s">
-        <v>2</v>
-      </c>
       <c r="C25" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
     </row>
+    <row r="26">
+      <c r="C26" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
